--- a/03_Optimus/03_Documents Projet/02_Ressources TOPs/Ordre_Jour_TOPs.xlsx
+++ b/03_Optimus/03_Documents Projet/02_Ressources TOPs/Ordre_Jour_TOPs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\Intergen\03_Optimus\03_Documents Projet\01_Documents Organisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\Intergen\03_Optimus\03_Documents Projet\02_Ressources TOPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Copeau 1 - Vulcanix" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="189">
   <si>
     <t>Tour de table des Académiciens</t>
   </si>
@@ -496,9 +496,6 @@
     <t xml:space="preserve">Vue globale Chassis </t>
   </si>
   <si>
-    <t>Video d'intégration</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -587,6 +584,18 @@
   </si>
   <si>
     <t>Retour admission et échappement</t>
+  </si>
+  <si>
+    <t>Retour sur la transmission secondaire</t>
+  </si>
+  <si>
+    <t>Châssis équipé et aérodynamique</t>
+  </si>
+  <si>
+    <t>Avancement étude aérodynamqiue</t>
+  </si>
+  <si>
+    <t>ACO</t>
   </si>
 </sst>
 </file>
@@ -785,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -927,6 +936,15 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,16 +1009,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1321,7 +1339,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1336,7 +1354,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2" t="s">
         <v>102</v>
       </c>
@@ -1352,7 +1370,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
@@ -1368,7 +1386,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
@@ -1384,7 +1402,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
         <v>98</v>
       </c>
@@ -1400,7 +1418,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -1418,7 +1436,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="26" t="s">
         <v>100</v>
       </c>
@@ -1434,7 +1452,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="26" t="s">
         <v>101</v>
       </c>
@@ -1450,7 +1468,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="56" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1469,7 +1487,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="10" t="s">
         <v>108</v>
       </c>
@@ -1486,7 +1504,7 @@
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="10" t="s">
         <v>109</v>
       </c>
@@ -1503,7 +1521,7 @@
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="10" t="s">
         <v>111</v>
       </c>
@@ -1520,7 +1538,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="10" t="s">
         <v>113</v>
       </c>
@@ -1552,7 +1570,7 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="55" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1571,7 +1589,7 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1605,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="29" t="s">
         <v>117</v>
       </c>
@@ -1603,7 +1621,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="29" t="s">
         <v>123</v>
       </c>
@@ -1619,7 +1637,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="57" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -1638,7 +1656,7 @@
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="28" t="s">
         <v>128</v>
       </c>
@@ -1655,7 +1673,7 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="28" t="s">
         <v>125</v>
       </c>
@@ -1671,7 +1689,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="54" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="26" t="s">
@@ -1689,7 +1707,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="26" t="s">
         <v>130</v>
       </c>
@@ -1826,7 +1844,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1844,7 +1862,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="55"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -1860,7 +1878,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="55"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>72</v>
       </c>
@@ -1876,7 +1894,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="9" t="s">
         <v>73</v>
       </c>
@@ -1892,7 +1910,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="55"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="9" t="s">
         <v>74</v>
       </c>
@@ -1908,7 +1926,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1926,7 +1944,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="11" t="s">
         <v>67</v>
       </c>
@@ -1974,7 +1992,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1992,7 +2010,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="9" t="s">
         <v>76</v>
       </c>
@@ -2008,7 +2026,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="55"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
@@ -2024,7 +2042,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="55"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
@@ -2040,7 +2058,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="54" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2058,7 +2076,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2074,7 +2092,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2" t="s">
         <v>119</v>
       </c>
@@ -2090,7 +2108,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="2" t="s">
         <v>120</v>
       </c>
@@ -2106,7 +2124,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2122,7 +2140,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2140,7 +2158,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="51"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2170,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2164,7 +2182,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2196,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2352,7 +2370,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2369,11 +2387,11 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="35" t="s">
         <v>152</v>
       </c>
@@ -2392,9 +2410,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>36</v>
@@ -2407,11 +2425,11 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
@@ -2430,7 +2448,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
@@ -2445,11 +2463,11 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2470,7 +2488,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="33" t="s">
         <v>140</v>
       </c>
@@ -2489,7 +2507,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="44" t="s">
         <v>132</v>
       </c>
@@ -2508,7 +2526,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="66"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="44" t="s">
         <v>136</v>
       </c>
@@ -2527,7 +2545,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="66"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="44" t="s">
         <v>42</v>
       </c>
@@ -2542,14 +2560,14 @@
         <v>0.84374999999999978</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="49">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="44" t="s">
         <v>43</v>
       </c>
@@ -2564,14 +2582,14 @@
         <v>0.85763888888888862</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="49">
         <v>0.87361111111111101</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="74" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2589,7 +2607,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="9" t="s">
         <v>45</v>
       </c>
@@ -2605,7 +2623,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="25" t="s">
         <v>151</v>
       </c>
@@ -2624,7 +2642,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="9" t="s">
         <v>138</v>
       </c>
@@ -2657,7 +2675,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="65" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2675,7 +2693,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="63"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>49</v>
       </c>
@@ -2691,7 +2709,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="63"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
@@ -2707,7 +2725,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="11" t="s">
         <v>52</v>
       </c>
@@ -2723,7 +2741,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="63"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="11" t="s">
         <v>134</v>
       </c>
@@ -2742,7 +2760,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="64"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="34" t="s">
         <v>51</v>
       </c>
@@ -2761,7 +2779,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="71" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2782,7 +2800,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="69"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="12" t="s">
         <v>54</v>
       </c>
@@ -2801,7 +2819,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="69"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="12" t="s">
         <v>55</v>
       </c>
@@ -2820,7 +2838,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="12" t="s">
         <v>57</v>
       </c>
@@ -2839,7 +2857,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="69"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="12" t="s">
         <v>59</v>
       </c>
@@ -2858,7 +2876,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="69"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="12" t="s">
         <v>61</v>
       </c>
@@ -2877,7 +2895,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="70"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
@@ -2896,7 +2914,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="59" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2913,11 +2931,11 @@
         <v>0.99305555555555491</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="26" t="s">
         <v>129</v>
       </c>
@@ -2933,7 +2951,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="26" t="s">
         <v>130</v>
       </c>
@@ -3010,10 +3028,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3061,7 +3079,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3071,17 +3089,17 @@
         <v>36</v>
       </c>
       <c r="D3" s="14">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E3" s="13">
         <f>E2+D3</f>
-        <v>0.77777777777777779</v>
+        <v>0.77430555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -3090,12 +3108,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E31" si="0">E3+D4</f>
-        <v>0.78472222222222221</v>
+        <f t="shared" ref="E4:E32" si="0">E3+D4</f>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
@@ -3103,53 +3121,53 @@
         <v>40</v>
       </c>
       <c r="D5" s="14">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="D6" s="21">
+        <v>1.9675925925925928E-3</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.78668981481481481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="77"/>
+      <c r="B7" s="47" t="s">
         <v>178</v>
-      </c>
-      <c r="D6" s="21">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>0.79513888888888884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
-      <c r="B7" s="47" t="s">
-        <v>179</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="21">
-        <v>3.472222222222222E-3</v>
+        <v>1.9675925925925928E-3</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>0.79861111111111105</v>
+        <v>0.78865740740740742</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="65" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>48</v>
@@ -3159,111 +3177,111 @@
       </c>
       <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>0.80208333333333326</v>
+        <v>0.79212962962962963</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>48</v>
+      <c r="C9" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="18">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>0.80555555555555547</v>
+        <v>0.79560185185185184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79907407407407405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="15">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>0.81249999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="66"/>
-      <c r="B11" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="15">
-        <v>1.0416666666666666E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>0.82291666666666652</v>
+        <v>0.80601851851851847</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="66"/>
-      <c r="B12" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>172</v>
+      <c r="A12" s="69"/>
+      <c r="B12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
-        <v>0.83333333333333315</v>
+        <v>0.8164351851851851</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="66"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="0"/>
-        <v>0.84374999999999978</v>
+        <v>0.82685185185185173</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
-      <c r="B14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>93</v>
+      <c r="A14" s="69"/>
+      <c r="B14" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>173</v>
       </c>
       <c r="D14" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="0"/>
-        <v>0.85416666666666641</v>
+        <v>0.83726851851851836</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>93</v>
@@ -3273,303 +3291,319 @@
       </c>
       <c r="E15" s="13">
         <f t="shared" si="0"/>
-        <v>0.86458333333333304</v>
+        <v>0.84768518518518499</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="10" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="D16" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>0.87499999999999967</v>
+        <v>0.85810185185185162</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="10" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="D17" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
-        <v>0.8854166666666663</v>
+        <v>0.86851851851851825</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.87893518518518488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>0.88888888888888851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
-      <c r="B19" s="9" t="s">
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.88240740740740709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="75"/>
+      <c r="B20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E19" s="13">
-        <f t="shared" si="0"/>
-        <v>0.89583333333333293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
-      <c r="B20" s="9" t="s">
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.8893518518518515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="75"/>
+      <c r="B21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E20" s="13">
-        <f t="shared" si="0"/>
-        <v>0.90624999999999956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="48" t="s">
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.89976851851851813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="75"/>
+      <c r="B22" s="48" t="s">
         <v>183</v>
-      </c>
-      <c r="D21" s="16">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E21" s="13">
-        <f t="shared" si="0"/>
-        <v>0.91319444444444398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
-      <c r="B22" s="48" t="s">
-        <v>181</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="16">
-        <v>3.472222222222222E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>0.91666666666666619</v>
+        <v>0.90671296296296255</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
-      <c r="B23" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>159</v>
+      <c r="A23" s="75"/>
+      <c r="B23" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="D23" s="16">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>0.9201388888888884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6" t="s">
+        <v>0.91018518518518476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="75"/>
+      <c r="B24" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="16">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.91365740740740697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="53"/>
+      <c r="B25" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="16">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.91712962962962918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="17">
+      <c r="C26" s="6"/>
+      <c r="D26" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E24" s="13">
-        <f t="shared" si="0"/>
-        <v>0.94097222222222177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="56" t="s">
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93796296296296255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B27" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C27" s="30" t="s">
         <v>36</v>
-      </c>
-      <c r="D25" s="31">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E25" s="13">
-        <f t="shared" si="0"/>
-        <v>0.94444444444444398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="31">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.94791666666666619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="57"/>
-      <c r="B27" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>139</v>
       </c>
       <c r="D27" s="31">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
-        <v>0.9513888888888884</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
-      <c r="B28" s="4" t="s">
+        <v>0.94143518518518476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="60"/>
+      <c r="B28" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="31">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.94490740740740697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
+      <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D29" s="19">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E28" s="13">
-        <f t="shared" si="0"/>
-        <v>0.95486111111111061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51" t="s">
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.94837962962962918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="14">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E29" s="13">
-        <f t="shared" si="0"/>
-        <v>0.95833333333333282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
-      <c r="B30" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="14">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
-        <v>0.96527777777777724</v>
+        <v>0.95185185185185139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="14">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95879629629629581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="54"/>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="14">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E31" s="13">
-        <f t="shared" si="0"/>
-        <v>0.96874999999999944</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D32" s="20"/>
-      <c r="E32" s="37"/>
+      <c r="E32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96226851851851802</v>
+      </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="20">
-        <f>SUM(D3:D31)</f>
-        <v>0.1979166666666666</v>
-      </c>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="20">
+        <f>SUM(D3:D32)</f>
+        <v>0.19143518518518512</v>
+      </c>
       <c r="E34" s="38"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="14">
-        <f>SUM(D10:D17)</f>
-        <v>7.9861111111111105E-2</v>
-      </c>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="14">
-        <f>SUM(D18:D20)</f>
-        <v>2.0833333333333332E-2</v>
+        <f>SUM(D11:D18)</f>
+        <v>7.9861111111111105E-2</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="14">
+        <f>SUM(D19:D21)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f>SUM(D8:D8)</f>
         <v>3.472222222222222E-3</v>
       </c>
@@ -3577,14 +3611,15 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3595,7 +3630,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3605,23 +3640,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="39"/>
       <c r="B2" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>162</v>
-      </c>
       <c r="D2" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3650,7 +3685,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="39">
         <v>7</v>
@@ -3665,7 +3700,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="39">
         <v>6</v>

--- a/03_Optimus/03_Documents Projet/02_Ressources TOPs/Ordre_Jour_TOPs.xlsx
+++ b/03_Optimus/03_Documents Projet/02_Ressources TOPs/Ordre_Jour_TOPs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="188">
   <si>
     <t>Tour de table des Académiciens</t>
   </si>
@@ -304,12 +304,6 @@
     <t>Retour sur les conditions du dernier TOP</t>
   </si>
   <si>
-    <t>Porte moyeu</t>
-  </si>
-  <si>
-    <t>Moyeu</t>
-  </si>
-  <si>
     <t>APU</t>
   </si>
   <si>
@@ -596,6 +590,9 @@
   </si>
   <si>
     <t>ACO</t>
+  </si>
+  <si>
+    <t>Roue équipée</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1353,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="54"/>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1372,7 +1369,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="54"/>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1388,7 +1385,7 @@
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A5" s="54"/>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1404,7 +1401,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1419,10 +1416,10 @@
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1438,7 +1435,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="54"/>
       <c r="B8" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1454,7 +1451,7 @@
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A9" s="54"/>
       <c r="B9" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1469,13 +1466,13 @@
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="D10" s="15">
         <v>2.0833333333333332E-2</v>
@@ -1489,10 +1486,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="15">
         <v>1.0416666666666666E-2</v>
@@ -1506,10 +1503,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="56"/>
       <c r="B12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="15">
         <v>1.7361111111111112E-2</v>
@@ -1523,10 +1520,10 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="56"/>
       <c r="B13" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="15">
         <v>2.0833333333333332E-2</v>
@@ -1540,10 +1537,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="15">
         <v>1.3888888888888888E-2</v>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>66</v>
@@ -1607,10 +1604,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="55"/>
       <c r="B18" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="18">
         <v>1.0416666666666666E-2</v>
@@ -1623,10 +1620,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="55"/>
       <c r="B19" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="18">
         <v>1.3888888888888888E-2</v>
@@ -1644,7 +1641,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="21">
         <v>6.9444444444444441E-3</v>
@@ -1658,10 +1655,10 @@
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A21" s="57"/>
       <c r="B21" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D21" s="21">
         <v>6.9444444444444441E-3</v>
@@ -1675,10 +1672,10 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="57"/>
       <c r="B22" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="21">
         <v>1.3888888888888888E-2</v>
@@ -1693,7 +1690,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1709,7 +1706,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="54"/>
       <c r="B24" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="14">
@@ -2094,7 +2091,7 @@
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A19" s="54"/>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2110,7 +2107,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="54"/>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2209,7 +2206,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20">
         <f>SUM(D2:D26)</f>
@@ -2357,7 +2354,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -2387,13 +2384,13 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63"/>
       <c r="B4" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>36</v>
@@ -2412,7 +2409,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>36</v>
@@ -2425,7 +2422,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2463,7 +2460,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2471,7 +2468,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>41</v>
@@ -2490,7 +2487,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>40</v>
@@ -2509,10 +2506,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="69"/>
       <c r="B10" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="15">
         <v>6.9444444444444441E-3</v>
@@ -2528,10 +2525,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="15">
         <v>6.9444444444444441E-3</v>
@@ -2560,7 +2557,7 @@
         <v>0.84374999999999978</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G12" s="49">
         <v>0.83333333333333337</v>
@@ -2582,7 +2579,7 @@
         <v>0.85763888888888862</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G13" s="49">
         <v>0.87361111111111101</v>
@@ -2593,7 +2590,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>44</v>
@@ -2625,7 +2622,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="75"/>
       <c r="B16" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>44</v>
@@ -2644,10 +2641,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="75"/>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="16">
         <v>3.472222222222222E-3</v>
@@ -2679,7 +2676,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>48</v>
@@ -2743,10 +2740,10 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="66"/>
       <c r="B23" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="18">
         <v>6.9444444444444441E-3</v>
@@ -2765,7 +2762,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="18">
         <v>6.9444444444444441E-3</v>
@@ -2783,7 +2780,7 @@
         <v>83</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>38</v>
@@ -2931,13 +2928,13 @@
         <v>0.99305555555555491</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A33" s="60"/>
       <c r="B33" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>36</v>
@@ -2953,7 +2950,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="61"/>
       <c r="B34" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="14">
@@ -2966,7 +2963,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="20">
         <f>SUM(D2:D34)</f>
@@ -2975,7 +2972,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C38" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="14">
         <f>SUM(D8:D13)</f>
@@ -2984,7 +2981,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C39" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" s="14">
         <f>SUM(D14:D17)</f>
@@ -2993,7 +2990,7 @@
     </row>
     <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="C40" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D40" s="14">
         <f>SUM(D19:D24)</f>
@@ -3002,7 +2999,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C41" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D41" s="14">
         <f>SUM(D25:D31)</f>
@@ -3028,10 +3025,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3099,17 +3096,17 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="63"/>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="14">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E32" si="0">E3+D4</f>
-        <v>0.78125</v>
+        <f t="shared" ref="E4:E31" si="0">E3+D4</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3125,7 +3122,7 @@
       </c>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>0.78472222222222221</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3133,23 +3130,23 @@
         <v>83</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="21">
         <v>1.9675925925925928E-3</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>0.78668981481481481</v>
+        <v>0.7832175925925926</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="77"/>
       <c r="B7" s="47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>60</v>
@@ -3159,7 +3156,7 @@
       </c>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>0.78865740740740742</v>
+        <v>0.78518518518518521</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3167,7 +3164,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>48</v>
@@ -3177,29 +3174,29 @@
       </c>
       <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>0.79212962962962963</v>
+        <v>0.78865740740740742</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="66"/>
       <c r="B9" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="18">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>0.79560185185185184</v>
+        <v>0.79212962962962963</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="67"/>
       <c r="B10" s="45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>48</v>
@@ -3209,7 +3206,7 @@
       </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>0.79907407407407405</v>
+        <v>0.79560185185185184</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3217,7 +3214,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>41</v>
@@ -3227,13 +3224,13 @@
       </c>
       <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>0.80601851851851847</v>
+        <v>0.80254629629629626</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>41</v>
@@ -3243,111 +3240,109 @@
       </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
-        <v>0.8164351851851851</v>
+        <v>0.81296296296296289</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="69"/>
       <c r="B13" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="0"/>
-        <v>0.82685185185185173</v>
+        <v>0.82337962962962952</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="0"/>
-        <v>0.83726851851851836</v>
+        <v>0.83379629629629615</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="69"/>
       <c r="B15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="D15" s="15">
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="0"/>
-        <v>0.84768518518518499</v>
+        <v>0.85462962962962952</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="10" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="D16" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>0.85810185185185162</v>
+        <v>0.86504629629629615</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="69"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="10" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D17" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
-        <v>0.86851851851851825</v>
+        <v>0.87546296296296278</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="70"/>
-      <c r="B18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1.0416666666666666E-2</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="17">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
-        <v>0.87893518518518488</v>
+        <v>0.89629629629629615</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>44</v>
@@ -3357,13 +3352,13 @@
       </c>
       <c r="E19" s="13">
         <f t="shared" si="0"/>
-        <v>0.88240740740740709</v>
+        <v>0.89976851851851836</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="75"/>
       <c r="B20" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>46</v>
@@ -3373,13 +3368,13 @@
       </c>
       <c r="E20" s="13">
         <f t="shared" si="0"/>
-        <v>0.8893518518518515</v>
+        <v>0.90671296296296278</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="75"/>
       <c r="B21" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>44</v>
@@ -3389,93 +3384,95 @@
       </c>
       <c r="E21" s="13">
         <f t="shared" si="0"/>
-        <v>0.89976851851851813</v>
+        <v>0.91712962962962941</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="75"/>
       <c r="B22" s="48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" s="16">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>0.90671296296296255</v>
+        <v>0.92407407407407383</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="75"/>
       <c r="B23" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" s="16">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>0.91018518518518476</v>
+        <v>0.92754629629629604</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="75"/>
       <c r="B24" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" s="16">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
-        <v>0.91365740740740697</v>
+        <v>0.93101851851851825</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="53"/>
       <c r="B25" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D25" s="16">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
-        <v>0.91712962962962918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="17">
-        <v>2.0833333333333332E-2</v>
+        <v>0.93449074074074046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="31">
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
-        <v>0.93796296296296255</v>
+        <v>0.93796296296296267</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="59" t="s">
-        <v>84</v>
-      </c>
+      <c r="A27" s="60"/>
       <c r="B27" s="30" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>36</v>
@@ -3485,125 +3482,109 @@
       </c>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
-        <v>0.94143518518518476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="60"/>
-      <c r="B28" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="31">
+        <v>0.94143518518518488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
+      <c r="B28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="19">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
-        <v>0.94490740740740697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
-      <c r="B29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="19">
+        <v>0.94490740740740709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="14">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="0"/>
-        <v>0.94837962962962918</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54" t="s">
-        <v>87</v>
-      </c>
+        <v>0.94837962962962929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="54"/>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="14">
-        <v>3.472222222222222E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
-        <v>0.95185185185185139</v>
+        <v>0.95532407407407371</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="54"/>
       <c r="B31" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="14">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="0"/>
-        <v>0.95879629629629581</v>
+        <v>0.95879629629629592</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="14">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E32" s="13">
-        <f t="shared" si="0"/>
-        <v>0.96226851851851802</v>
-      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D33" s="20"/>
-      <c r="E33" s="37"/>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="20">
+        <f>SUM(D3:D31)</f>
+        <v>0.18796296296296286</v>
+      </c>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="20">
-        <f>SUM(D3:D32)</f>
-        <v>0.19143518518518512</v>
-      </c>
       <c r="E34" s="38"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="E35" s="38"/>
+      <c r="C35" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="14">
+        <f>SUM(D11:D17)</f>
+        <v>7.9861111111111119E-2</v>
+      </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="14">
-        <f>SUM(D11:D18)</f>
-        <v>7.9861111111111105E-2</v>
+        <f>SUM(D19:D21)</f>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="14">
-        <f>SUM(D19:D21)</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="14">
         <f>SUM(D8:D8)</f>
         <v>3.472222222222222E-3</v>
       </c>
@@ -3611,10 +3592,10 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A6:A7"/>
   </mergeCells>
@@ -3641,7 +3622,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -3650,13 +3631,13 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="39"/>
       <c r="B2" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>161</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3685,7 +3666,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="39">
         <v>7</v>
@@ -3700,7 +3681,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="39">
         <v>6</v>
@@ -3715,7 +3696,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="39">
         <f>B5*B6</f>
